--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10290"/>
+    <workbookView windowWidth="23895" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -740,15 +740,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,15 +907,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -928,14 +922,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,7 +1280,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1371,13 +1359,13 @@
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1386,9 +1374,9 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1389,7 @@
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1410,14 +1398,14 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="2:6">
       <c r="B10" s="5" t="s">
@@ -1429,7 +1417,7 @@
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1439,8 +1427,8 @@
     <row r="11" ht="14.25" spans="2:6">
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1450,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1476,7 +1464,7 @@
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="2:6">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1485,7 +1473,7 @@
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1493,20 +1481,20 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="23"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1521,27 +1509,27 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="8"/>
@@ -1551,7 +1539,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1560,7 +1548,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>48</v>
       </c>
     </row>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -26,10 +26,10 @@
     <t>進捗</t>
   </si>
   <si>
-    <t>動作</t>
-  </si>
-  <si>
-    <t>実装したい機能</t>
+    <t>メイン動作</t>
+  </si>
+  <si>
+    <t>機能</t>
   </si>
   <si>
     <t>ログイン認証</t>
@@ -59,9 +59,6 @@
     <t>home.jspに飛ぶ</t>
   </si>
   <si>
-    <t>・UserCreate.jspへのリンクをつける</t>
-  </si>
-  <si>
     <t>商品購入</t>
   </si>
   <si>
@@ -83,7 +80,7 @@
     <t>・売り切れた商品の表示を変える</t>
   </si>
   <si>
-    <t>CategoryShowAction</t>
+    <t>CategorySearchAction</t>
   </si>
   <si>
     <t>商品カテゴリ別に表示</t>
@@ -131,7 +128,7 @@
     <t>管理者から返信する、入力チェック</t>
   </si>
   <si>
-    <t>InquiryDeleteAction</t>
+    <t>InquiryAllDeleteAction</t>
   </si>
   <si>
     <t>問合せの削除機能</t>
@@ -158,7 +155,7 @@
     <t>在庫の追加</t>
   </si>
   <si>
-    <t>・トップページのコンテンツを作成</t>
+    <t>トップページのコンテンツを作成</t>
   </si>
   <si>
     <t>・ページ下のリンクを正しく直す</t>
@@ -172,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -207,91 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,30 +218,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,11 +249,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -383,6 +380,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,85 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,55 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,15 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -672,7 +660,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +697,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -703,26 +715,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,149 +731,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,16 +907,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,17 +937,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1280,7 +1274,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1351,205 +1345,207 @@
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="14.25" spans="2:6">
       <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:6">
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5"/>
-      <c r="C13" s="16" t="s">
-        <v>31</v>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="8" t="s">
+    </row>
+    <row r="14" ht="14" customHeight="1" spans="2:6">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" ht="14" customHeight="1" spans="2:6">
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="8" t="s">
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="20"/>
+      <c r="C15" s="14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="19"/>
-      <c r="C15" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="22"/>
+      <c r="C17" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="22"/>
+      <c r="C18" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>46</v>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="14" t="s">
-        <v>48</v>
+      <c r="F20" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1594,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -155,10 +155,13 @@
     <t>在庫の追加</t>
   </si>
   <si>
+    <t>その他</t>
+  </si>
+  <si>
     <t>トップページのコンテンツを作成</t>
   </si>
   <si>
-    <t>・ページ下のリンクを正しく直す</t>
+    <t>ページ下のリンクを正しく直す</t>
   </si>
   <si>
     <t>未</t>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -256,6 +259,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -263,71 +313,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +401,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,13 +443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,43 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,49 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,21 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -723,6 +711,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,136 +743,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,7 +1277,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1529,24 +1532,28 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1594,7 +1601,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -128,6 +128,9 @@
     <t>管理者から返信する、入力チェック</t>
   </si>
   <si>
+    <t>送信確認画面を追加する</t>
+  </si>
+  <si>
     <t>InquiryAllDeleteAction</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>商品の追加機能</t>
   </si>
   <si>
+    <t>在庫を減らす</t>
+  </si>
+  <si>
     <t>ItemDeleteAction</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>トップページのコンテンツを作成</t>
+  </si>
+  <si>
+    <t>コードを綺麗にする</t>
   </si>
   <si>
     <t>ページ下のリンクを正しく直す</t>
@@ -172,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -208,6 +217,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +276,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,6 +307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,36 +322,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -407,6 +416,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,25 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,121 +482,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,13 +752,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -758,125 +767,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,20 +934,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1274,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1404,8 +1428,8 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" ht="14.25" spans="2:6">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1421,10 +1445,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:6">
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="12"/>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -1447,7 +1471,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1461,65 +1485,63 @@
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="2:6">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="20"/>
-      <c r="C15" s="14" t="s">
+    <row r="15" ht="14" customHeight="1" spans="2:6">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="17"/>
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="18" t="s">
+      <c r="E16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="22"/>
-      <c r="C17" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="22"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
         <v>44</v>
       </c>
@@ -1532,49 +1554,68 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D14 D15 D3:D5 D8:D9 D16:D18 D19:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D14 D15 D16 D3:D5 D8:D9 D17:D19 D20:D21">
       <formula1>Sheet2!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,7 +1642,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -68,6 +68,9 @@
     <t>・1000円以下の時は送料がかかるようにする</t>
   </si>
   <si>
+    <t>・商品を選んでいない時はボタンを押せないようにする</t>
+  </si>
+  <si>
     <t>・ログインしてない時は購入ボタンを置かない</t>
   </si>
   <si>
@@ -146,7 +149,7 @@
     <t>商品の追加機能</t>
   </si>
   <si>
-    <t>在庫を減らす</t>
+    <t>在庫を一括で同じ数にする</t>
   </si>
   <si>
     <t>ItemDeleteAction</t>
@@ -181,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -216,15 +219,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +317,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,119 +361,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -392,6 +395,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,31 +431,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,121 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +641,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -672,6 +684,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -696,42 +734,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +746,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,140 +755,140 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +925,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,29 +955,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1298,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1393,229 +1387,238 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5"/>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="14" customHeight="1" spans="2:6">
-      <c r="B14" s="16" t="s">
+      <c r="F14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="20" t="s">
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="2:6">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" ht="14" customHeight="1" spans="2:6">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
       <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="17"/>
-      <c r="C16" s="14" t="s">
+    <row r="16" ht="14" customHeight="1" spans="2:6">
+      <c r="B16" s="22"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="19"/>
+      <c r="C17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="16" t="s">
+      <c r="E17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="27"/>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="22"/>
+      <c r="C19" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="27"/>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="22"/>
+      <c r="C20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D14 D15 D16 D3:D5 D8:D9 D17:D19 D20:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D3:D5 D9:D10 D18:D20 D21:D22">
       <formula1>Sheet2!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -119,6 +119,15 @@
     <t>全消しではなく商品ごとの履歴を消す</t>
   </si>
   <si>
+    <t>UserDeleteAction</t>
+  </si>
+  <si>
+    <t>ユーザー情報の削除</t>
+  </si>
+  <si>
+    <t>ユーザー情報消去、ワンクッション入れる</t>
+  </si>
+  <si>
     <t>問い合わせ</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
     <t>問合せ機能</t>
   </si>
   <si>
-    <t>管理者から返信する、入力チェック</t>
-  </si>
-  <si>
     <t>送信確認画面を追加する</t>
   </si>
   <si>
@@ -149,9 +155,6 @@
     <t>商品の追加機能</t>
   </si>
   <si>
-    <t>在庫を一括で同じ数にする</t>
-  </si>
-  <si>
     <t>ItemDeleteAction</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
   </si>
   <si>
     <t>ページ下のリンクを正しく直す</t>
+  </si>
+  <si>
+    <t>userUpdate.jspからHTML修正</t>
   </si>
   <si>
     <t>未</t>
@@ -184,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -888,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,17 +955,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1292,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1451,7 +1451,7 @@
     <row r="12" spans="2:6">
       <c r="B12" s="19"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="14"/>
       <c r="F12" s="8" t="s">
         <v>27</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1487,138 +1487,156 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="14" customHeight="1" spans="2:6">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11" t="s">
+    </row>
+    <row r="16" ht="14" customHeight="1" spans="2:6">
+      <c r="B16" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" ht="14" customHeight="1" spans="2:6">
-      <c r="B16" s="22"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="19"/>
-      <c r="C17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="2:6">
+      <c r="B17" s="21"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="22"/>
-      <c r="C19" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="21"/>
+      <c r="C20" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="22"/>
-      <c r="C20" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="21"/>
+      <c r="C21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D3:D5 D9:D10 D18:D20 D21:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D3:D5 D9:D10 D19:D21 D22:D23">
       <formula1>Sheet2!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1645,7 +1663,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>商品の削除機能</t>
+  </si>
+  <si>
+    <t>ItemUpdateAction</t>
+  </si>
+  <si>
+    <t>商品情報の更新</t>
   </si>
   <si>
     <t>ItemInvestoryControlAction</t>
@@ -190,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -225,91 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,30 +245,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,11 +276,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,6 +407,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,85 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,78 +582,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,15 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -690,7 +687,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +724,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -721,26 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,149 +758,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +962,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1489,12 +1498,10 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1527,7 @@
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="2:6">
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
@@ -1536,7 +1543,7 @@
       <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="11"/>
@@ -1557,7 +1564,7 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="16" t="s">
         <v>46</v>
       </c>
@@ -1570,35 +1577,33 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="21"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -1606,11 +1611,24 @@
       <c r="E23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+      <c r="F23" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1620,13 +1638,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D11:D12"/>
@@ -1636,7 +1654,7 @@
     <mergeCell ref="E16:E17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D3:D5 D9:D10 D19:D21 D22:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D21 D22 D3:D5 D9:D10 D19:D20 D23:D24">
       <formula1>Sheet2!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1663,7 +1681,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -231,7 +231,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,130 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +407,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,175 +443,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +653,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -687,22 +696,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,15 +727,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -742,11 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,7 +758,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,140 +767,140 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,14 +964,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1304,7 +1307,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1498,14 +1501,14 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="6"/>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10365"/>
+    <workbookView windowWidth="15735" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -65,10 +65,7 @@
     <t>BuyItemAction</t>
   </si>
   <si>
-    <t>・1000円以下の時は送料がかかるようにする</t>
-  </si>
-  <si>
-    <t>・商品を選んでいない時はボタンを押せないようにする</t>
+    <t>・商品を選んでいない時はボタンを押せない、エラーが出るようにする</t>
   </si>
   <si>
     <t>・ログインしてない時は購入ボタンを置かない</t>
@@ -196,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -231,54 +228,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,22 +252,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,53 +274,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +404,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,175 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,15 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,16 +684,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +721,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -736,17 +739,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,145 +755,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,11 +940,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1393,140 +1390,138 @@
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
-        <v>17</v>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="5"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="19"/>
       <c r="C12" s="9"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5"/>
       <c r="C14" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="2:6">
       <c r="B16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="2:6">
@@ -1535,87 +1530,87 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22"/>
       <c r="C20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22"/>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="22"/>
       <c r="C22" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -1625,13 +1620,13 @@
         <v>7</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1679,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>userUpdate.jspからHTML修正</t>
+  </si>
+  <si>
+    <t>カート機能</t>
+  </si>
+  <si>
+    <t>購入ボタンの横にカートに入れるボタン</t>
+  </si>
+  <si>
+    <t>カート用のList作成してjspに表示</t>
+  </si>
+  <si>
+    <t>カート表示画面でアイテム削除ボタン追加</t>
+  </si>
+  <si>
+    <t>購入確定で購入アクション使用</t>
   </si>
   <si>
     <t>未</t>
@@ -193,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +242,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +326,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -249,127 +393,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -416,31 +439,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,139 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,6 +673,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -684,22 +716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,15 +738,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -739,11 +747,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,7 +778,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,140 +787,140 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +995,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1627,6 +1653,31 @@
     <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1730,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="7275"/>
+    <workbookView windowWidth="23895" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>赤は未作成</t>
   </si>
@@ -77,9 +77,6 @@
     <t>検索機能</t>
   </si>
   <si>
-    <t>・売り切れた商品の表示を変える</t>
-  </si>
-  <si>
     <t>CategorySearchAction</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>ユーザー情報の編集</t>
   </si>
   <si>
-    <t>全消しではなく商品ごとの履歴を消す</t>
-  </si>
-  <si>
     <t>UserDeleteAction</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>商品の削除機能</t>
   </si>
   <si>
-    <t>ItemUpdateAction</t>
-  </si>
-  <si>
-    <t>商品情報の更新</t>
-  </si>
-  <si>
     <t>ItemInvestoryControlAction</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
   </si>
   <si>
     <t>トップページのコンテンツを作成</t>
-  </si>
-  <si>
-    <t>コードを綺麗にする</t>
   </si>
   <si>
     <t>ページ下のリンクを正しく直す</t>
@@ -208,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -251,68 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,53 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,11 +281,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -439,12 +424,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,7 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,19 +550,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,109 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,15 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -716,7 +692,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +729,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -747,26 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,7 +763,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,140 +772,140 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,9 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1327,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F36"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1447,38 +1429,36 @@
       <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1487,67 +1467,67 @@
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
       <c r="F12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5"/>
       <c r="C14" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="2:6">
       <c r="B16" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="2:6">
@@ -1556,128 +1536,115 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22"/>
       <c r="C20" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="22"/>
-      <c r="C22" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>52</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1687,13 +1654,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D11:D12"/>
@@ -1703,7 +1670,7 @@
     <mergeCell ref="E16:E17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D21 D22 D3:D5 D9:D10 D19:D20 D23:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D21 D3:D5 D9:D10 D19:D20 D22:D23">
       <formula1>Sheet2!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1730,7 +1697,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/実装の進捗.xlsx
+++ b/実装の進捗.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
-  <si>
-    <t>赤は未作成</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>アクション名</t>
   </si>
@@ -165,24 +162,6 @@
   </si>
   <si>
     <t>ページ下のリンクを正しく直す</t>
-  </si>
-  <si>
-    <t>userUpdate.jspからHTML修正</t>
-  </si>
-  <si>
-    <t>カート機能</t>
-  </si>
-  <si>
-    <t>購入ボタンの横にカートに入れるボタン</t>
-  </si>
-  <si>
-    <t>カート用のList作成してjspに表示</t>
-  </si>
-  <si>
-    <t>カート表示画面でアイテム削除ボタン追加</t>
-  </si>
-  <si>
-    <t>購入確定で購入アクション使用</t>
   </si>
   <si>
     <t>未</t>
@@ -235,13 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,14 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -282,6 +246,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -352,6 +323,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,103 +391,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,21 +638,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -698,16 +662,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +719,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,7 +742,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,76 +751,76 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,58 +829,58 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,7 +1288,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,40 +1304,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1366,37 +1343,37 @@
       <c r="C4" s="6"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" ht="14.25" spans="2:6">
       <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -1406,7 +1383,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1415,50 +1392,50 @@
       <c r="D8" s="9"/>
       <c r="E8" s="15"/>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1467,67 +1444,67 @@
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
       <c r="F12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5"/>
       <c r="C14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="2:6">
       <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="2:6">
@@ -1536,73 +1513,73 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22"/>
       <c r="C20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22"/>
       <c r="C21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="14"/>
     </row>
@@ -1610,42 +1587,15 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
+      <c r="B30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1692,12 +1642,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
